--- a/发票金额数据.xlsx
+++ b/发票金额数据.xlsx
@@ -431,14 +431,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>105.8</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>9.68</t>
+          <t>11.9</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -455,7 +455,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>11.9</t>
+          <t>117.0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -472,357 +472,357 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>12.24</t>
+          <t>117.5</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>12.4</t>
+          <t>12.24</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>12.5</t>
+          <t>12.4</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>13.2</t>
+          <t>12.5</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>14.5</t>
+          <t>122.57</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>14.8</t>
+          <t>123.0</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>15.04</t>
+          <t>13.2</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>16.49</t>
+          <t>14.5</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>16.5</t>
+          <t>14.8</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>16.5</t>
+          <t>140.0</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>17.46</t>
+          <t>148.0</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>19.0</t>
+          <t>15.04</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>158.0</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>20.5</t>
+          <t>16.49</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>23.64</t>
+          <t>16.5</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>24.45</t>
+          <t>16.5</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>24.74</t>
+          <t>17.46</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>27.91</t>
+          <t>177.28</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>28.65</t>
+          <t>183.0</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>29.0</t>
+          <t>19.0</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>29.4</t>
+          <t>196.11</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>30.85</t>
+          <t>20.0</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>32.68</t>
+          <t>20.5</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>32.8</t>
+          <t>23.64</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>35.1</t>
+          <t>24.45</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>36.0</t>
+          <t>24.74</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>36.66</t>
+          <t>27.91</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>37.44</t>
+          <t>28.65</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>38.0</t>
+          <t>29.0</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>38.7</t>
+          <t>29.4</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>41.0</t>
+          <t>3.0</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>42.7</t>
+          <t>30.85</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>45.6</t>
+          <t>32.68</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>47.5</t>
+          <t>32.8</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>54.96</t>
+          <t>35.1</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>64.46</t>
+          <t>36.0</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>87.3</t>
+          <t>36.66</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>92.5</t>
+          <t>37.44</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>94.29</t>
+          <t>38.0</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>98.0</t>
+          <t>38.7</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>105.8</t>
+          <t>41.0</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>117.0</t>
+          <t>42.7</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>117.5</t>
+          <t>45.6</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>122.57</t>
+          <t>47.5</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>123.0</t>
+          <t>54.96</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>140.0</t>
+          <t>64.46</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>148.0</t>
+          <t>87.3</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>158.0</t>
+          <t>9.68</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>177.28</t>
+          <t>92.5</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>183.0</t>
+          <t>94.29</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>196.11</t>
+          <t>98.0</t>
         </is>
       </c>
     </row>

--- a/发票金额数据.xlsx
+++ b/发票金额数据.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,7 +438,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>11.9</t>
+          <t>117.0</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -455,7 +455,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>117.0</t>
+          <t>117.5</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -465,105 +465,105 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>3008.3</t>
+          <t>2996.4</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>117.5</t>
+          <t>12.24</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>12.24</t>
+          <t>12.4</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>12.4</t>
+          <t>12.5</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>12.5</t>
+          <t>122.57</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>122.57</t>
+          <t>123.0</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>123.0</t>
+          <t>13.2</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>13.2</t>
+          <t>14.5</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>14.5</t>
+          <t>14.8</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>14.8</t>
+          <t>140.0</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>140.0</t>
+          <t>148.0</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>148.0</t>
+          <t>15.04</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>15.04</t>
+          <t>158.0</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>158.0</t>
+          <t>16.49</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>16.49</t>
+          <t>16.5</t>
         </is>
       </c>
     </row>
@@ -577,250 +577,243 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>16.5</t>
+          <t>17.46</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>17.46</t>
+          <t>177.28</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>177.28</t>
+          <t>183.0</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>183.0</t>
+          <t>19.0</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>19.0</t>
+          <t>196.11</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>196.11</t>
+          <t>20.0</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>20.0</t>
+          <t>20.5</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>20.5</t>
+          <t>23.64</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>23.64</t>
+          <t>24.45</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>24.45</t>
+          <t>24.74</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>24.74</t>
+          <t>27.91</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>27.91</t>
+          <t>28.65</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>28.65</t>
+          <t>29.0</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>29.0</t>
+          <t>29.4</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>29.4</t>
+          <t>3.0</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>3.0</t>
+          <t>30.85</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>30.85</t>
+          <t>32.68</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>32.68</t>
+          <t>32.8</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>32.8</t>
+          <t>35.1</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>35.1</t>
+          <t>36.0</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>36.0</t>
+          <t>36.66</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>36.66</t>
+          <t>37.44</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>37.44</t>
+          <t>38.0</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>38.0</t>
+          <t>38.7</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>38.7</t>
+          <t>41.0</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>41.0</t>
+          <t>42.7</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>42.7</t>
+          <t>45.6</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>45.6</t>
+          <t>47.5</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>47.5</t>
+          <t>54.96</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>54.96</t>
+          <t>64.46</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>64.46</t>
+          <t>87.3</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>87.3</t>
+          <t>9.68</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>9.68</t>
+          <t>92.5</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>92.5</t>
+          <t>94.29</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
-        <is>
-          <t>94.29</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
         <is>
           <t>98.0</t>
         </is>
